--- a/ocms/src/test/resources/DownloadedFiles/BlindTransfer.xlsx
+++ b/ocms/src/test/resources/DownloadedFiles/BlindTransfer.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="53">
   <si>
     <t xml:space="preserve">Channel</t>
   </si>
@@ -154,19 +154,16 @@
     <t xml:space="preserve">90001</t>
   </si>
   <si>
-    <t xml:space="preserve">QATETHERFI\Administrator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">05/08/2021 21:06:57</t>
+    <t xml:space="preserve">10/08/2021 11:29:21</t>
   </si>
   <si>
     <t xml:space="preserve">ChatSkill1</t>
   </si>
   <si>
-    <t xml:space="preserve">1391501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">05/08/2021 21:06:04</t>
+    <t xml:space="preserve">1390101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10/08/2021 11:28:26</t>
   </si>
   <si>
     <t xml:space="preserve">ChatSkill4</t>
@@ -178,7 +175,7 @@
     <t xml:space="preserve">90002</t>
   </si>
   <si>
-    <t xml:space="preserve">05/08/2021 21:06:17</t>
+    <t xml:space="preserve">10/08/2021 11:28:42</t>
   </si>
 </sst>
 </file>
@@ -436,10 +433,10 @@
         <v>44</v>
       </c>
       <c r="E9" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="10" x14ac:dyDescent="0.25">
@@ -447,19 +444,19 @@
         <v>6</v>
       </c>
       <c r="B10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" t="s">
         <v>47</v>
-      </c>
-      <c r="C10" t="s">
-        <v>48</v>
       </c>
       <c r="D10" t="s">
         <v>44</v>
       </c>
       <c r="E10" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" x14ac:dyDescent="0.25">
@@ -467,19 +464,19 @@
         <v>6</v>
       </c>
       <c r="B11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" t="s">
         <v>50</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>51</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F11" s="2" t="s">
         <v>52</v>
-      </c>
-      <c r="E11" t="s">
-        <v>45</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>53</v>
       </c>
     </row>
   </sheetData>
